--- a/SPU122_data/SPU122_Large_customers.xlsx
+++ b/SPU122_data/SPU122_Large_customers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailwsu-my.sharepoint.com/personal/nathan_gray_wsu_edu/Documents/Documents/GitHub/SynerGEE_2_GridLABD/SPU122_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SynerGEE_2_GridLABD\SPU122_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
